--- a/lit review list.xlsx
+++ b/lit review list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09393818\Documents\cct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e8e8b470168b563/cct/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93DC89-51A5-4DCE-9F61-EC48AAA182F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7C93DC89-51A5-4DCE-9F61-EC48AAA182F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7CF359D-7141-4316-8BC9-3DE995A3C311}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D12F7349-BC95-4C09-83D0-09224F6BAADF}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{D12F7349-BC95-4C09-83D0-09224F6BAADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="332">
   <si>
     <t>author name</t>
   </si>
@@ -45,24 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Research question</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> limitation within</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performance metrics</t>
-  </si>
-  <si>
-    <t>Lit Review</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Kay Dean</t>
@@ -413,9 +393,6 @@
   </si>
   <si>
     <t>Amazon.com, product reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Problem description</t>
   </si>
   <si>
     <t>base paper</t>
@@ -791,9 +768,6 @@
     <t>Neural network architecture vrs transformer performance</t>
   </si>
   <si>
-    <t xml:space="preserve">resource requirement </t>
-  </si>
-  <si>
     <t>permance model scores</t>
   </si>
   <si>
@@ -1177,6 +1151,33 @@
   </si>
   <si>
     <t>no performance metric detailed</t>
+  </si>
+  <si>
+    <t>Title- not necessary</t>
+  </si>
+  <si>
+    <t>type - not necessary</t>
+  </si>
+  <si>
+    <t>Cite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Problem description- format as problem statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> methodology- keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> limitation within- important</t>
+  </si>
+  <si>
+    <t>resource requirement -too generic, not valid critique</t>
+  </si>
+  <si>
+    <t>no research experiment included. General overview- generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performance metrics- evaluation part of papers eg rmse etc</t>
   </si>
 </sst>
 </file>
@@ -1220,12 +1221,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1241,7 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1255,9 +1274,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1577,1290 +1608,1290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B4C5A-4ABD-4B75-9957-3F6830D44976}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
+      <c r="D1" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="B6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <v>16</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="B16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B24" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B25" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B27" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="L28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
+        <v>30</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="C30" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="D30" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>31</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="C31" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>32</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="C32" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>33</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D33" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>34</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="C34" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="D34" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="J34" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>35</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
